--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>2023-08-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:59:59.0</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>1.14.x</t>
+  </si>
+  <si>
+    <t>2023-10-05 09:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -118,7 +130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -199,6 +211,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>1.16.x</t>
+  </si>
+  <si>
+    <t>2023-10-26 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -130,7 +139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -228,6 +237,23 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -38,7 +38,7 @@
     <t>2022-01-01 00:00:00.0</t>
   </si>
   <si>
-    <t>2022-12-31 00:00:00.0</t>
+    <t>2023-11-03 00:00:00.0</t>
   </si>
   <si>
     <t>100001</t>
@@ -47,9 +47,6 @@
     <t>2023-01-01 00:00:00.0</t>
   </si>
   <si>
-    <t>2023-07-31 00:00:00.0</t>
-  </si>
-  <si>
     <t>100002</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>2023-08-01 00:00:00.0</t>
   </si>
   <si>
-    <t>2023-10-05 08:59:59.0</t>
-  </si>
-  <si>
     <t>100003</t>
   </si>
   <si>
@@ -71,16 +65,19 @@
     <t>2023-10-05 09:00:00.0</t>
   </si>
   <si>
+    <t>2024-01-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>1.16.x</t>
+  </si>
+  <si>
+    <t>2023-10-26 00:00:00.0</t>
+  </si>
+  <si>
     <t>9999-12-31 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>1.16.x</t>
-  </si>
-  <si>
-    <t>2023-10-26 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -114,7 +111,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -122,31 +119,30 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="7.7265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.19140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.1953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
@@ -197,7 +193,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -205,53 +201,53 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>2023-10-26 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-02-03 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>1.18.x</t>
+  </si>
+  <si>
+    <t>2023-11-02 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -111,7 +123,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,30 +131,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="7.7265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.1953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.19140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
@@ -250,6 +263,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>2023-11-02 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-02-16 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>1.19.x</t>
+  </si>
+  <si>
+    <t>2023-11-13 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -148,7 +160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -280,6 +292,23 @@
         <v>22</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>2023-11-13 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-03-20 10:04:35.0</t>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t>1.22.x</t>
+  </si>
+  <si>
+    <t>2023-12-21 09:55:28.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -160,7 +172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -309,6 +321,23 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>2023-12-21 09:55:28.0</t>
+  </si>
+  <si>
+    <t>2024-04-16 10:29:15.0</t>
+  </si>
+  <si>
+    <t>100008</t>
+  </si>
+  <si>
+    <t>1.23.x</t>
+  </si>
+  <si>
+    <t>2024-01-17 10:29:15.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -172,7 +184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -338,6 +350,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>2024-01-17 10:29:15.0</t>
+  </si>
+  <si>
+    <t>2024-05-19 17:28:16.0</t>
+  </si>
+  <si>
+    <t>100009</t>
+  </si>
+  <si>
+    <t>1.24.x</t>
+  </si>
+  <si>
+    <t>2024-02-19 17:28:16.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -184,7 +196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -367,6 +379,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -101,7 +101,7 @@
     <t>2023-11-13 00:00:00.0</t>
   </si>
   <si>
-    <t>2024-03-20 10:04:35.0</t>
+    <t>2024-03-20 00:00:00.0</t>
   </si>
   <si>
     <t>100007</t>
@@ -110,10 +110,10 @@
     <t>1.22.x</t>
   </si>
   <si>
-    <t>2023-12-21 09:55:28.0</t>
-  </si>
-  <si>
-    <t>2024-04-16 10:29:15.0</t>
+    <t>2023-12-21 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-04-16 00:00:00.0</t>
   </si>
   <si>
     <t>100008</t>
@@ -122,10 +122,10 @@
     <t>1.23.x</t>
   </si>
   <si>
-    <t>2024-01-17 10:29:15.0</t>
-  </si>
-  <si>
-    <t>2024-05-19 17:28:16.0</t>
+    <t>2024-01-17 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-05-19 00:00:00.0</t>
   </si>
   <si>
     <t>100009</t>
@@ -134,7 +134,19 @@
     <t>1.24.x</t>
   </si>
   <si>
-    <t>2024-02-19 17:28:16.0</t>
+    <t>2024-02-19 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-06-11 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100010</t>
+  </si>
+  <si>
+    <t>1.26.x</t>
+  </si>
+  <si>
+    <t>2024-03-11 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -196,7 +208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -396,6 +408,23 @@
         <v>38</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>2024-03-11 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-06-23 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100011</t>
+  </si>
+  <si>
+    <t>1.27.x</t>
+  </si>
+  <si>
+    <t>2024-03-27 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -208,7 +220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -425,6 +437,23 @@
         <v>42</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>2024-03-27 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-07-29 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100012</t>
+  </si>
+  <si>
+    <t>1.28.x</t>
+  </si>
+  <si>
+    <t>2024-04-30 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -220,7 +232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -454,6 +466,23 @@
         <v>46</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>2024-04-30 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2024-08-27 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100013</t>
+  </si>
+  <si>
+    <t>1.29.x</t>
+  </si>
+  <si>
+    <t>2024-05-29 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -232,7 +244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -483,6 +495,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -161,7 +161,7 @@
     <t>2024-03-27 00:00:00.0</t>
   </si>
   <si>
-    <t>2024-07-29 00:00:00.0</t>
+    <t>2024-10-01 00:00:00.0</t>
   </si>
   <si>
     <t>100012</t>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>2024-04-30 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2024-08-27 00:00:00.0</t>
   </si>
   <si>
     <t>100013</t>
@@ -489,7 +486,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>50</v>
@@ -497,19 +494,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>2024-05-29 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100014</t>
+  </si>
+  <si>
+    <t>1.30.x</t>
+  </si>
+  <si>
+    <t>2024-06-25 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -241,7 +250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -503,10 +512,27 @@
         <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>2024-06-25 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-01-25 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100015</t>
+  </si>
+  <si>
+    <t>1.31.x</t>
+  </si>
+  <si>
+    <t>2024-07-25 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -250,7 +262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -535,6 +547,23 @@
         <v>56</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -1,232 +1,259 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
+    <sheet name="Table" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>DESCRIZIONE</t>
-  </si>
-  <si>
-    <t>DATAINIZIOVALIDITA</t>
-  </si>
-  <si>
-    <t>DATAFINEVALIDITA</t>
-  </si>
-  <si>
-    <t>ORDINAMENTO</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1.10.x</t>
-  </si>
-  <si>
-    <t>2022-01-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2023-11-03 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100001</t>
-  </si>
-  <si>
-    <t>2023-01-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100002</t>
-  </si>
-  <si>
-    <t>1.11.x</t>
-  </si>
-  <si>
-    <t>2023-08-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>1.14.x</t>
-  </si>
-  <si>
-    <t>2023-10-05 09:00:00.0</t>
-  </si>
-  <si>
-    <t>2024-01-31 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>1.16.x</t>
-  </si>
-  <si>
-    <t>2023-10-26 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2024-02-03 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100005</t>
-  </si>
-  <si>
-    <t>1.18.x</t>
-  </si>
-  <si>
-    <t>2023-11-02 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2024-02-16 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100006</t>
-  </si>
-  <si>
-    <t>1.19.x</t>
-  </si>
-  <si>
-    <t>2023-11-13 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2024-03-20 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100007</t>
-  </si>
-  <si>
-    <t>1.22.x</t>
-  </si>
-  <si>
-    <t>2023-12-21 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2024-04-16 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100008</t>
-  </si>
-  <si>
-    <t>1.23.x</t>
-  </si>
-  <si>
-    <t>2024-01-17 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2024-05-19 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100009</t>
-  </si>
-  <si>
-    <t>1.24.x</t>
-  </si>
-  <si>
-    <t>2024-02-19 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2024-06-11 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100010</t>
-  </si>
-  <si>
-    <t>1.26.x</t>
-  </si>
-  <si>
-    <t>2024-03-11 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2024-06-23 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100011</t>
-  </si>
-  <si>
-    <t>1.27.x</t>
-  </si>
-  <si>
-    <t>2024-03-27 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2024-10-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100012</t>
-  </si>
-  <si>
-    <t>1.28.x</t>
-  </si>
-  <si>
-    <t>2024-04-30 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100013</t>
-  </si>
-  <si>
-    <t>1.29.x</t>
-  </si>
-  <si>
-    <t>2024-05-29 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100014</t>
-  </si>
-  <si>
-    <t>1.30.x</t>
-  </si>
-  <si>
-    <t>2024-06-25 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2025-01-25 00:00:00.0</t>
-  </si>
-  <si>
-    <t>100015</t>
-  </si>
-  <si>
-    <t>1.31.x</t>
-  </si>
-  <si>
-    <t>2024-07-25 00:00:00.0</t>
-  </si>
-  <si>
-    <t>9999-12-31 00:00:00.0</t>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIZIONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATAINIZIOVALIDITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATAFINEVALIDITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORDINAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-03 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-05 09:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-26 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-03 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-02 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-16 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-13 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-20 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-21 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-16 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-17 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-19 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-19 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-11 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-11 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-23 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-27 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-30 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-29 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-25 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-25 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-25 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9999-12-31 00:00:00.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,48 +261,88 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.19140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="21.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.56"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -292,7 +359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -309,7 +376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -326,7 +393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -343,7 +410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -360,7 +427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -377,7 +444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -394,7 +461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -411,7 +478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -428,7 +495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -445,7 +512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -462,7 +529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -479,7 +546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -496,7 +563,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -513,7 +580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -530,7 +597,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
@@ -547,7 +614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -565,6 +632,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -181,6 +181,9 @@
     <t xml:space="preserve">2024-04-30 00:00:00.0</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-11-01 00:00:00.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">100013</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t xml:space="preserve">2024-05-29 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-01 00:00:00.0</t>
   </si>
   <si>
     <t xml:space="preserve">100014</t>
@@ -226,6 +232,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -298,8 +305,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,304 +342,304 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="21.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="21.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>56</v>
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>60</v>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>2024-09-24 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-04-29 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100017</t>
+  </si>
+  <si>
+    <t>1.34.x</t>
+  </si>
+  <si>
+    <t>2024-10-29 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -280,7 +292,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -599,6 +611,23 @@
         <v>66</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>2024-10-29 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-05-30 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100018</t>
+  </si>
+  <si>
+    <t>1.35.x</t>
+  </si>
+  <si>
+    <t>2024-12-02 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -292,7 +304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -628,6 +640,23 @@
         <v>70</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>2024-12-02 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-06-18 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100019</t>
+  </si>
+  <si>
+    <t>1.36.x</t>
+  </si>
+  <si>
+    <t>2024-12-18 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -304,7 +316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -657,6 +669,23 @@
         <v>74</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>2024-12-18 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-07-28 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100020</t>
+  </si>
+  <si>
+    <t>1.37.x</t>
+  </si>
+  <si>
+    <t>2025-01-28 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -316,7 +328,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -686,6 +698,23 @@
         <v>78</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -209,7 +209,7 @@
     <t>2024-07-25 00:00:00.0</t>
   </si>
   <si>
-    <t>2025-03-24 00:00:00.0</t>
+    <t>2025-05-24 00:00:00.0</t>
   </si>
   <si>
     <t>100016</t>
@@ -221,7 +221,7 @@
     <t>2024-09-24 00:00:00.0</t>
   </si>
   <si>
-    <t>2025-04-29 00:00:00.0</t>
+    <t>2025-06-29 00:00:00.0</t>
   </si>
   <si>
     <t>100017</t>
@@ -233,7 +233,7 @@
     <t>2024-10-29 00:00:00.0</t>
   </si>
   <si>
-    <t>2025-05-30 00:00:00.0</t>
+    <t>2025-07-30 00:00:00.0</t>
   </si>
   <si>
     <t>100018</t>
@@ -245,7 +245,7 @@
     <t>2024-12-02 00:00:00.0</t>
   </si>
   <si>
-    <t>2025-06-18 00:00:00.0</t>
+    <t>2025-08-18 00:00:00.0</t>
   </si>
   <si>
     <t>100019</t>
@@ -257,7 +257,7 @@
     <t>2024-12-18 00:00:00.0</t>
   </si>
   <si>
-    <t>2025-07-28 00:00:00.0</t>
+    <t>2025-09-28 00:00:00.0</t>
   </si>
   <si>
     <t>100020</t>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>2025-01-28 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-10-25 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100021</t>
+  </si>
+  <si>
+    <t>1.38.x</t>
+  </si>
+  <si>
+    <t>2025-02-25 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -328,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -715,6 +727,23 @@
         <v>82</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -279,6 +279,18 @@
   </si>
   <si>
     <t>2025-02-25 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2025-11-27 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100022</t>
+  </si>
+  <si>
+    <t>1.39.x</t>
+  </si>
+  <si>
+    <t>2025-03-27 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -340,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -744,6 +756,23 @@
         <v>86</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -221,7 +221,7 @@
     <t>2024-09-24 00:00:00.0</t>
   </si>
   <si>
-    <t>2025-06-29 00:00:00.0</t>
+    <t>2025-09-30 00:00:00.0</t>
   </si>
   <si>
     <t>100017</t>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>2025-03-27 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2026-01-26 18:59:04.0</t>
+  </si>
+  <si>
+    <t>100023</t>
+  </si>
+  <si>
+    <t>1.41.x</t>
+  </si>
+  <si>
+    <t>2025-05-26 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -352,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -773,6 +785,23 @@
         <v>90</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>2025-05-26 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2026-02-25 12:07:32.0</t>
+  </si>
+  <si>
+    <t>100024</t>
+  </si>
+  <si>
+    <t>1.42.x</t>
+  </si>
+  <si>
+    <t>2025-06-25 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -364,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -802,6 +814,23 @@
         <v>94</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -269,7 +269,7 @@
     <t>2025-01-28 00:00:00.0</t>
   </si>
   <si>
-    <t>2025-10-25 00:00:00.0</t>
+    <t>2026-01-01 00:00:00.0</t>
   </si>
   <si>
     <t>100021</t>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>2025-06-25 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2026-03-29 16:52:46.0</t>
+  </si>
+  <si>
+    <t>100025</t>
+  </si>
+  <si>
+    <t>1.43.x</t>
+  </si>
+  <si>
+    <t>2025-07-29 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -376,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -831,6 +843,23 @@
         <v>98</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -327,6 +327,18 @@
   </si>
   <si>
     <t>2025-07-29 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2026-05-26 17:22:25.0</t>
+  </si>
+  <si>
+    <t>100026</t>
+  </si>
+  <si>
+    <t>1.44.x</t>
+  </si>
+  <si>
+    <t>2025-09-26 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -388,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -860,6 +872,23 @@
         <v>102</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -339,6 +339,18 @@
   </si>
   <si>
     <t>2025-09-26 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2026-06-28 18:04:39.0</t>
+  </si>
+  <si>
+    <t>100027</t>
+  </si>
+  <si>
+    <t>1.46.x</t>
+  </si>
+  <si>
+    <t>2025-10-28 00:00:00.0</t>
   </si>
   <si>
     <t>9999-12-31 00:00:00.0</t>
@@ -400,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -889,6 +901,23 @@
         <v>106</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/100_dec_versione.xlsx
+++ b/docs/Decodifiche/100_dec_versione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -353,7 +353,25 @@
     <t>2025-10-28 00:00:00.0</t>
   </si>
   <si>
+    <t>2026-08-21 21:34:20.0</t>
+  </si>
+  <si>
+    <t>100028</t>
+  </si>
+  <si>
+    <t>1.48.x</t>
+  </si>
+  <si>
+    <t>2025-12-15 00:00:00.0</t>
+  </si>
+  <si>
     <t>9999-12-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t>100029</t>
+  </si>
+  <si>
+    <t>2025-12-21 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -412,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -918,6 +936,40 @@
         <v>110</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
